--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/metrics/Trial_138__Reeval_Taguchi_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/metrics/Trial_138__Reeval_Taguchi_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5353,13 +5353,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>365.0512084960938</c:v>
+                  <c:v>365.0511779785156</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>361.380126953125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>359.5280151367188</c:v>
+                  <c:v>359.5280456542969</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>360.8484191894531</c:v>
@@ -5371,7 +5371,7 @@
                   <c:v>347.0346984863281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>354.4530639648438</c:v>
+                  <c:v>354.4530944824219</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>354.5313720703125</c:v>
@@ -5404,10 +5404,10 @@
                   <c:v>355.643798828125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>344.2370910644531</c:v>
+                  <c:v>344.2371215820312</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>357.8949890136719</c:v>
+                  <c:v>357.89501953125</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>351.5360717773438</c:v>
@@ -5503,7 +5503,7 @@
                   <c:v>352.3356018066406</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>348.4762878417969</c:v>
+                  <c:v>348.4762573242188</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>358.3604431152344</c:v>
@@ -5560,7 +5560,7 @@
                   <c:v>352.4403076171875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>358.62255859375</c:v>
+                  <c:v>358.6225280761719</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>361.9317321777344</c:v>
@@ -5620,7 +5620,7 @@
                   <c:v>357.8871154785156</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>358.3208312988281</c:v>
+                  <c:v>358.32080078125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5645,7 +5645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5660,7 +5660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5689,7 +5689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5704,7 +5704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5733,7 +5733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5748,7 +5748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6260,13 +6260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:S712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6291,8 +6291,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.54</v>
       </c>
@@ -6309,7 +6315,7 @@
         <v>363.306</v>
       </c>
       <c r="F2">
-        <v>365.0512084960938</v>
+        <v>365.0511779785156</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6317,8 +6323,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.305</v>
       </c>
@@ -6338,13 +6350,19 @@
         <v>361.380126953125</v>
       </c>
       <c r="G3">
+        <v>393</v>
+      </c>
+      <c r="H3">
+        <v>393</v>
+      </c>
+      <c r="R3">
         <v>371</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>361.741</v>
       </c>
@@ -6361,16 +6379,22 @@
         <v>339.681</v>
       </c>
       <c r="F4">
-        <v>359.5280151367188</v>
+        <v>359.5280456542969</v>
       </c>
       <c r="G4">
+        <v>393</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>338.792</v>
       </c>
@@ -6390,13 +6414,19 @@
         <v>360.8484191894531</v>
       </c>
       <c r="G5">
+        <v>393</v>
+      </c>
+      <c r="H5">
+        <v>393</v>
+      </c>
+      <c r="R5">
         <v>371</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>353.734</v>
       </c>
@@ -6416,13 +6446,19 @@
         <v>350.1609497070312</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>393</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>371</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>363.503</v>
       </c>
@@ -6442,13 +6478,19 @@
         <v>347.0346984863281</v>
       </c>
       <c r="G7">
+        <v>393</v>
+      </c>
+      <c r="H7">
+        <v>393</v>
+      </c>
+      <c r="R7">
         <v>371</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>360.226</v>
       </c>
@@ -6465,10 +6507,10 @@
         <v>346.989</v>
       </c>
       <c r="F8">
-        <v>354.4530639648438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>354.4530944824219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>359.146</v>
       </c>
@@ -6488,7 +6530,7 @@
         <v>354.5313720703125</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>358.977</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>352.8536682128906</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>330.382</v>
       </c>
@@ -6528,7 +6570,7 @@
         <v>349.3026428222656</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.115</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>361.073486328125</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>358.917</v>
       </c>
@@ -6568,7 +6610,7 @@
         <v>357.1695861816406</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.516</v>
       </c>
@@ -6588,7 +6630,7 @@
         <v>357.7671508789062</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>355.69</v>
       </c>
@@ -6608,7 +6650,7 @@
         <v>358.0585021972656</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>355.401</v>
       </c>
@@ -6685,7 +6727,7 @@
         <v>357.631</v>
       </c>
       <c r="F19">
-        <v>344.2370910644531</v>
+        <v>344.2371215820312</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6705,7 +6747,7 @@
         <v>360.348</v>
       </c>
       <c r="F20">
-        <v>357.8949890136719</v>
+        <v>357.89501953125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7345,7 +7387,7 @@
         <v>357.671</v>
       </c>
       <c r="F52">
-        <v>348.4762878417969</v>
+        <v>348.4762573242188</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7725,7 +7767,7 @@
         <v>360.089</v>
       </c>
       <c r="F71">
-        <v>358.62255859375</v>
+        <v>358.6225280761719</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8119,7 +8161,7 @@
         <v>358.955</v>
       </c>
       <c r="F91">
-        <v>358.3208312988281</v>
+        <v>358.32080078125</v>
       </c>
     </row>
     <row r="92" spans="1:6">
